--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntn1</t>
+  </si>
+  <si>
+    <t>Unc5c</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn1</t>
-  </si>
-  <si>
-    <t>Unc5c</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H2">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003305</v>
+        <v>0.583722</v>
       </c>
       <c r="N2">
-        <v>0.009915</v>
+        <v>1.751166</v>
       </c>
       <c r="O2">
-        <v>0.004314559451496128</v>
+        <v>0.8813407994427594</v>
       </c>
       <c r="P2">
-        <v>0.004314559451496128</v>
+        <v>0.8813407994427596</v>
       </c>
       <c r="Q2">
-        <v>0.002801299271666667</v>
+        <v>0.8924731906439999</v>
       </c>
       <c r="R2">
-        <v>0.025211693445</v>
+        <v>8.032258715796001</v>
       </c>
       <c r="S2">
-        <v>0.0002413287508997579</v>
+        <v>0.08520580753199052</v>
       </c>
       <c r="T2">
-        <v>0.0002413287508997579</v>
+        <v>0.08520580753199052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H3">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.583722</v>
+        <v>0.05944866666666667</v>
       </c>
       <c r="N3">
-        <v>1.751166</v>
+        <v>0.178346</v>
       </c>
       <c r="O3">
-        <v>0.7620282215268449</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="P3">
-        <v>0.762028221526845</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="Q3">
-        <v>0.4947594594419999</v>
+        <v>0.09089316698622223</v>
       </c>
       <c r="R3">
-        <v>4.452835134978</v>
+        <v>0.818038502876</v>
       </c>
       <c r="S3">
-        <v>0.04262296554696171</v>
+        <v>0.008677712421381172</v>
       </c>
       <c r="T3">
-        <v>0.04262296554696172</v>
+        <v>0.00867771242138117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,60 +667,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H4">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1527826666666667</v>
+        <v>0.01914066666666667</v>
       </c>
       <c r="N4">
-        <v>0.458348</v>
+        <v>0.057422</v>
       </c>
       <c r="O4">
-        <v>0.1994523142182902</v>
+        <v>0.0288998024091389</v>
       </c>
       <c r="P4">
-        <v>0.1994523142182902</v>
+        <v>0.02889980240913891</v>
       </c>
       <c r="Q4">
-        <v>0.1294977224982222</v>
+        <v>0.02926484157022222</v>
       </c>
       <c r="R4">
-        <v>1.165479502484</v>
+        <v>0.263383574132</v>
       </c>
       <c r="S4">
-        <v>0.01115608172641475</v>
+        <v>0.002793960070091561</v>
       </c>
       <c r="T4">
-        <v>0.01115608172641475</v>
+        <v>0.002793960070091561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8475943333333333</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H5">
-        <v>2.542783</v>
+        <v>32.140514</v>
       </c>
       <c r="I5">
-        <v>0.05593357876111178</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J5">
-        <v>0.05593357876111178</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02620133333333333</v>
+        <v>0.583722</v>
       </c>
       <c r="N5">
-        <v>0.07860399999999999</v>
+        <v>1.751166</v>
       </c>
       <c r="O5">
-        <v>0.03420490480336879</v>
+        <v>0.8813407994427594</v>
       </c>
       <c r="P5">
-        <v>0.0342049048033688</v>
+        <v>0.8813407994427596</v>
       </c>
       <c r="Q5">
-        <v>0.02220810165911111</v>
+        <v>6.253708371035999</v>
       </c>
       <c r="R5">
-        <v>0.199872914932</v>
+        <v>56.283375339324</v>
       </c>
       <c r="S5">
-        <v>0.001913202736835559</v>
+        <v>0.5970512923073804</v>
       </c>
       <c r="T5">
-        <v>0.001913202736835559</v>
+        <v>0.5970512923073803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>32.140514</v>
       </c>
       <c r="I6">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J6">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.003305</v>
+        <v>0.05944866666666667</v>
       </c>
       <c r="N6">
-        <v>0.009915</v>
+        <v>0.178346</v>
       </c>
       <c r="O6">
-        <v>0.004314559451496128</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="P6">
-        <v>0.004314559451496128</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="Q6">
-        <v>0.03540813292333334</v>
+        <v>0.6369035677604444</v>
       </c>
       <c r="R6">
-        <v>0.31867319631</v>
+        <v>5.732132109844</v>
       </c>
       <c r="S6">
-        <v>0.003050370439355691</v>
+        <v>0.06080617701454464</v>
       </c>
       <c r="T6">
-        <v>0.003050370439355691</v>
+        <v>0.06080617701454463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,72 +859,72 @@
         <v>32.140514</v>
       </c>
       <c r="I7">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J7">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.583722</v>
+        <v>0.01914066666666667</v>
       </c>
       <c r="N7">
-        <v>1.751166</v>
+        <v>0.057422</v>
       </c>
       <c r="O7">
-        <v>0.7620282215268449</v>
+        <v>0.0288998024091389</v>
       </c>
       <c r="P7">
-        <v>0.762028221526845</v>
+        <v>0.02889980240913891</v>
       </c>
       <c r="Q7">
-        <v>6.253708371036</v>
+        <v>0.2050636216564444</v>
       </c>
       <c r="R7">
-        <v>56.283375339324</v>
+        <v>1.845572594908</v>
       </c>
       <c r="S7">
-        <v>0.5387498740095559</v>
+        <v>0.01957774380434202</v>
       </c>
       <c r="T7">
-        <v>0.5387498740095561</v>
+        <v>0.01957774380434202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>10.71350466666667</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H8">
-        <v>32.140514</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I8">
-        <v>0.7069946476917676</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J8">
-        <v>0.7069946476917677</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,60 +933,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1527826666666667</v>
+        <v>0.583722</v>
       </c>
       <c r="N8">
-        <v>0.458348</v>
+        <v>1.751166</v>
       </c>
       <c r="O8">
-        <v>0.1994523142182902</v>
+        <v>0.8813407994427594</v>
       </c>
       <c r="P8">
-        <v>0.1994523142182902</v>
+        <v>0.8813407994427596</v>
       </c>
       <c r="Q8">
-        <v>1.636837812319111</v>
+        <v>0.124636126866</v>
       </c>
       <c r="R8">
-        <v>14.731540310872</v>
+        <v>1.121725141794</v>
       </c>
       <c r="S8">
-        <v>0.1410117186220678</v>
+        <v>0.01189920543116153</v>
       </c>
       <c r="T8">
-        <v>0.1410117186220678</v>
+        <v>0.01189920543116153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>10.71350466666667</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H9">
-        <v>32.140514</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I9">
-        <v>0.7069946476917676</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J9">
-        <v>0.7069946476917677</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02620133333333333</v>
+        <v>0.05944866666666667</v>
       </c>
       <c r="N9">
-        <v>0.07860399999999999</v>
+        <v>0.178346</v>
       </c>
       <c r="O9">
-        <v>0.03420490480336879</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="P9">
-        <v>0.0342049048033688</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="Q9">
-        <v>0.2807081069395556</v>
+        <v>0.01269345949044445</v>
       </c>
       <c r="R9">
-        <v>2.526372962456</v>
+        <v>0.114241135414</v>
       </c>
       <c r="S9">
-        <v>0.02418268462078817</v>
+        <v>0.001211864375979168</v>
       </c>
       <c r="T9">
-        <v>0.02418268462078817</v>
+        <v>0.001211864375979168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H10">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I10">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J10">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,60 +1057,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.003305</v>
+        <v>0.01914066666666667</v>
       </c>
       <c r="N10">
-        <v>0.009915</v>
+        <v>0.057422</v>
       </c>
       <c r="O10">
-        <v>0.004314559451496128</v>
+        <v>0.0288998024091389</v>
       </c>
       <c r="P10">
-        <v>0.004314559451496128</v>
+        <v>0.02889980240913891</v>
       </c>
       <c r="Q10">
-        <v>0.0002101726616666667</v>
+        <v>0.004086908766444445</v>
       </c>
       <c r="R10">
-        <v>0.001891553955</v>
+        <v>0.03678217889800001</v>
       </c>
       <c r="S10">
-        <v>1.810613611558796E-05</v>
+        <v>0.0003901835544249704</v>
       </c>
       <c r="T10">
-        <v>1.810613611558796E-05</v>
+        <v>0.0003901835544249704</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06359233333333333</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H11">
-        <v>0.190777</v>
+        <v>8.491094</v>
       </c>
       <c r="I11">
-        <v>0.00419652025175118</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J11">
-        <v>0.00419652025175118</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,160 +1125,160 @@
         <v>1.751166</v>
       </c>
       <c r="O11">
-        <v>0.7620282215268449</v>
+        <v>0.8813407994427594</v>
       </c>
       <c r="P11">
-        <v>0.762028221526845</v>
+        <v>0.8813407994427596</v>
       </c>
       <c r="Q11">
-        <v>0.037120243998</v>
+        <v>1.652146123956</v>
       </c>
       <c r="R11">
-        <v>0.334082195982</v>
+        <v>14.869315115604</v>
       </c>
       <c r="S11">
-        <v>0.003197866864043339</v>
+        <v>0.1577329673633547</v>
       </c>
       <c r="T11">
-        <v>0.00319786686404334</v>
+        <v>0.1577329673633547</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06359233333333333</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H12">
-        <v>0.190777</v>
+        <v>8.491094</v>
       </c>
       <c r="I12">
-        <v>0.00419652025175118</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J12">
-        <v>0.00419652025175118</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1527826666666667</v>
+        <v>0.05944866666666667</v>
       </c>
       <c r="N12">
-        <v>0.458348</v>
+        <v>0.178346</v>
       </c>
       <c r="O12">
-        <v>0.1994523142182902</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="P12">
-        <v>0.1994523142182902</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="Q12">
-        <v>0.009715806266222224</v>
+        <v>0.1682614056137778</v>
       </c>
       <c r="R12">
-        <v>0.08744225639600001</v>
+        <v>1.514352650524</v>
       </c>
       <c r="S12">
-        <v>0.0008370056758756946</v>
+        <v>0.01606417883706334</v>
       </c>
       <c r="T12">
-        <v>0.0008370056758756948</v>
+        <v>0.01606417883706334</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.830364666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.491094</v>
+      </c>
+      <c r="I13">
+        <v>0.1789693243102823</v>
+      </c>
+      <c r="J13">
+        <v>0.1789693243102823</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.06359233333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.190777</v>
-      </c>
-      <c r="I13">
-        <v>0.00419652025175118</v>
-      </c>
-      <c r="J13">
-        <v>0.00419652025175118</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M13">
-        <v>0.02620133333333333</v>
+        <v>0.01914066666666667</v>
       </c>
       <c r="N13">
-        <v>0.07860399999999999</v>
+        <v>0.057422</v>
       </c>
       <c r="O13">
-        <v>0.03420490480336879</v>
+        <v>0.0288998024091389</v>
       </c>
       <c r="P13">
-        <v>0.0342049048033688</v>
+        <v>0.02889980240913891</v>
       </c>
       <c r="Q13">
-        <v>0.001666203923111111</v>
+        <v>0.05417506662977778</v>
       </c>
       <c r="R13">
-        <v>0.014995835308</v>
+        <v>0.487575599668</v>
       </c>
       <c r="S13">
-        <v>0.0001435415757165583</v>
+        <v>0.005172178109864259</v>
       </c>
       <c r="T13">
-        <v>0.0001435415757165584</v>
+        <v>0.005172178109864258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,61 +1287,61 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.417961</v>
+        <v>0.528479</v>
       </c>
       <c r="H14">
-        <v>10.253883</v>
+        <v>1.585437</v>
       </c>
       <c r="I14">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J14">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.003305</v>
+        <v>0.583722</v>
       </c>
       <c r="N14">
-        <v>0.009915</v>
+        <v>1.751166</v>
       </c>
       <c r="O14">
-        <v>0.004314559451496128</v>
+        <v>0.8813407994427594</v>
       </c>
       <c r="P14">
-        <v>0.004314559451496128</v>
+        <v>0.8813407994427596</v>
       </c>
       <c r="Q14">
-        <v>0.011296361105</v>
+        <v>0.308484818838</v>
       </c>
       <c r="R14">
-        <v>0.101667249945</v>
+        <v>2.776363369542</v>
       </c>
       <c r="S14">
-        <v>0.0009731686802461169</v>
+        <v>0.02945152680887233</v>
       </c>
       <c r="T14">
-        <v>0.0009731686802461169</v>
+        <v>0.02945152680887233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,61 +1349,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.417961</v>
+        <v>0.528479</v>
       </c>
       <c r="H15">
-        <v>10.253883</v>
+        <v>1.585437</v>
       </c>
       <c r="I15">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J15">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.583722</v>
+        <v>0.05944866666666667</v>
       </c>
       <c r="N15">
-        <v>1.751166</v>
+        <v>0.178346</v>
       </c>
       <c r="O15">
-        <v>0.7620282215268449</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="P15">
-        <v>0.762028221526845</v>
+        <v>0.08975939814810155</v>
       </c>
       <c r="Q15">
-        <v>1.995139030842</v>
+        <v>0.03141737191133333</v>
       </c>
       <c r="R15">
-        <v>17.956251277578</v>
+        <v>0.282756347202</v>
       </c>
       <c r="S15">
-        <v>0.171878961685514</v>
+        <v>0.002999465499133232</v>
       </c>
       <c r="T15">
-        <v>0.171878961685514</v>
+        <v>0.002999465499133231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,604 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.417961</v>
+        <v>0.528479</v>
       </c>
       <c r="H16">
-        <v>10.253883</v>
+        <v>1.585437</v>
       </c>
       <c r="I16">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J16">
-        <v>0.2255545881767044</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1527826666666667</v>
+        <v>0.01914066666666667</v>
       </c>
       <c r="N16">
-        <v>0.458348</v>
+        <v>0.057422</v>
       </c>
       <c r="O16">
-        <v>0.1994523142182902</v>
+        <v>0.0288998024091389</v>
       </c>
       <c r="P16">
-        <v>0.1994523142182902</v>
+        <v>0.02889980240913891</v>
       </c>
       <c r="Q16">
-        <v>0.5222051961426667</v>
+        <v>0.01011544037933333</v>
       </c>
       <c r="R16">
-        <v>4.699846765284</v>
+        <v>0.09103896341400002</v>
       </c>
       <c r="S16">
-        <v>0.04498738459439709</v>
+        <v>0.0009657368704160925</v>
       </c>
       <c r="T16">
-        <v>0.0449873845943971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>3.417961</v>
-      </c>
-      <c r="H17">
-        <v>10.253883</v>
-      </c>
-      <c r="I17">
-        <v>0.2255545881767044</v>
-      </c>
-      <c r="J17">
-        <v>0.2255545881767044</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.02620133333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.07860399999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.03420490480336879</v>
-      </c>
-      <c r="P17">
-        <v>0.0342049048033688</v>
-      </c>
-      <c r="Q17">
-        <v>0.08955513548133331</v>
-      </c>
-      <c r="R17">
-        <v>0.8059962193319998</v>
-      </c>
-      <c r="S17">
-        <v>0.007715073216547227</v>
-      </c>
-      <c r="T17">
-        <v>0.007715073216547228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.06890399999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.206712</v>
-      </c>
-      <c r="I18">
-        <v>0.004547042328372864</v>
-      </c>
-      <c r="J18">
-        <v>0.004547042328372865</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.003305</v>
-      </c>
-      <c r="N18">
-        <v>0.009915</v>
-      </c>
-      <c r="O18">
-        <v>0.004314559451496128</v>
-      </c>
-      <c r="P18">
-        <v>0.004314559451496128</v>
-      </c>
-      <c r="Q18">
-        <v>0.00022772772</v>
-      </c>
-      <c r="R18">
-        <v>0.00204954948</v>
-      </c>
-      <c r="S18">
-        <v>1.96184844542341E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.96184844542341E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.06890399999999999</v>
-      </c>
-      <c r="H19">
-        <v>0.206712</v>
-      </c>
-      <c r="I19">
-        <v>0.004547042328372864</v>
-      </c>
-      <c r="J19">
-        <v>0.004547042328372865</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.583722</v>
-      </c>
-      <c r="N19">
-        <v>1.751166</v>
-      </c>
-      <c r="O19">
-        <v>0.7620282215268449</v>
-      </c>
-      <c r="P19">
-        <v>0.762028221526845</v>
-      </c>
-      <c r="Q19">
-        <v>0.04022078068799999</v>
-      </c>
-      <c r="R19">
-        <v>0.361987026192</v>
-      </c>
-      <c r="S19">
-        <v>0.003464974578697257</v>
-      </c>
-      <c r="T19">
-        <v>0.003464974578697259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.06890399999999999</v>
-      </c>
-      <c r="H20">
-        <v>0.206712</v>
-      </c>
-      <c r="I20">
-        <v>0.004547042328372864</v>
-      </c>
-      <c r="J20">
-        <v>0.004547042328372865</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.1527826666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.458348</v>
-      </c>
-      <c r="O20">
-        <v>0.1994523142182902</v>
-      </c>
-      <c r="P20">
-        <v>0.1994523142182902</v>
-      </c>
-      <c r="Q20">
-        <v>0.010527336864</v>
-      </c>
-      <c r="R20">
-        <v>0.09474603177599999</v>
-      </c>
-      <c r="S20">
-        <v>0.0009069181152424903</v>
-      </c>
-      <c r="T20">
-        <v>0.0009069181152424905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06890399999999999</v>
-      </c>
-      <c r="H21">
-        <v>0.206712</v>
-      </c>
-      <c r="I21">
-        <v>0.004547042328372864</v>
-      </c>
-      <c r="J21">
-        <v>0.004547042328372865</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.02620133333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.07860399999999999</v>
-      </c>
-      <c r="O21">
-        <v>0.03420490480336879</v>
-      </c>
-      <c r="P21">
-        <v>0.0342049048033688</v>
-      </c>
-      <c r="Q21">
-        <v>0.001805376672</v>
-      </c>
-      <c r="R21">
-        <v>0.016248390048</v>
-      </c>
-      <c r="S21">
-        <v>0.0001555311499788822</v>
-      </c>
-      <c r="T21">
-        <v>0.0001555311499788822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.126091</v>
-      </c>
-      <c r="I22">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J22">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.003305</v>
-      </c>
-      <c r="N22">
-        <v>0.009915</v>
-      </c>
-      <c r="O22">
-        <v>0.004314559451496128</v>
-      </c>
-      <c r="P22">
-        <v>0.004314559451496128</v>
-      </c>
-      <c r="Q22">
-        <v>0.0001389102516666667</v>
-      </c>
-      <c r="R22">
-        <v>0.001250192265</v>
-      </c>
-      <c r="S22">
-        <v>1.196696042473989E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.196696042473989E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.126091</v>
-      </c>
-      <c r="I23">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J23">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.583722</v>
-      </c>
-      <c r="N23">
-        <v>1.751166</v>
-      </c>
-      <c r="O23">
-        <v>0.7620282215268449</v>
-      </c>
-      <c r="P23">
-        <v>0.762028221526845</v>
-      </c>
-      <c r="Q23">
-        <v>0.024534030234</v>
-      </c>
-      <c r="R23">
-        <v>0.220806272106</v>
-      </c>
-      <c r="S23">
-        <v>0.002113578842072623</v>
-      </c>
-      <c r="T23">
-        <v>0.002113578842072623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.126091</v>
-      </c>
-      <c r="I24">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J24">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.1527826666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.458348</v>
-      </c>
-      <c r="O24">
-        <v>0.1994523142182902</v>
-      </c>
-      <c r="P24">
-        <v>0.1994523142182902</v>
-      </c>
-      <c r="Q24">
-        <v>0.006421506407555557</v>
-      </c>
-      <c r="R24">
-        <v>0.057793557668</v>
-      </c>
-      <c r="S24">
-        <v>0.0005532054842923529</v>
-      </c>
-      <c r="T24">
-        <v>0.000553205484292353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.126091</v>
-      </c>
-      <c r="I25">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J25">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.02620133333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.07860399999999999</v>
-      </c>
-      <c r="O25">
-        <v>0.03420490480336879</v>
-      </c>
-      <c r="P25">
-        <v>0.0342049048033688</v>
-      </c>
-      <c r="Q25">
-        <v>0.001101250773777778</v>
-      </c>
-      <c r="R25">
-        <v>0.009911256964</v>
-      </c>
-      <c r="S25">
-        <v>9.487150350239578E-05</v>
-      </c>
-      <c r="T25">
-        <v>9.487150350239582E-05</v>
+        <v>0.0009657368704160924</v>
       </c>
     </row>
   </sheetData>
